--- a/FinalProyect/test/SoundTest/SongsGraphs.xlsx
+++ b/FinalProyect/test/SoundTest/SongsGraphs.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\IA\mc6101ia\SoundTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\IA\mc6101ia\FinalProyect\test\SoundTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="2610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="2610" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="41">
   <si>
     <t>Bacilos</t>
   </si>
@@ -38,6 +40,117 @@
   </si>
   <si>
     <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>42,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>51,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>45,</t>
+  </si>
+  <si>
+    <t>36,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>37,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>41,</t>
+  </si>
+  <si>
+    <t>46,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>48,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>52,</t>
+  </si>
+  <si>
+    <t>53,</t>
   </si>
 </sst>
 </file>
@@ -2172,11 +2285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="380012536"/>
-        <c:axId val="380010576"/>
+        <c:axId val="276718752"/>
+        <c:axId val="276719144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="380012536"/>
+        <c:axId val="276718752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380010576"/>
+        <c:crossAx val="276719144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2226,7 +2339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380010576"/>
+        <c:axId val="276719144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380012536"/>
+        <c:crossAx val="276718752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2902,11 +3015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="471226168"/>
-        <c:axId val="471226560"/>
+        <c:axId val="276719928"/>
+        <c:axId val="276714832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471226168"/>
+        <c:axId val="276719928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +3061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471226560"/>
+        <c:crossAx val="276714832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2956,7 +3069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471226560"/>
+        <c:axId val="276714832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,7 +3120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471226168"/>
+        <c:crossAx val="276719928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3600,11 +3713,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="466504472"/>
-        <c:axId val="466504864"/>
+        <c:axId val="276717184"/>
+        <c:axId val="276713264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466504472"/>
+        <c:axId val="276717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466504864"/>
+        <c:crossAx val="276713264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3654,7 +3767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466504864"/>
+        <c:axId val="276713264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3705,7 +3818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466504472"/>
+        <c:crossAx val="276717184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4298,11 +4411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="430160640"/>
-        <c:axId val="430157504"/>
+        <c:axId val="322804464"/>
+        <c:axId val="322807992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430160640"/>
+        <c:axId val="322804464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,7 +4457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430157504"/>
+        <c:crossAx val="322807992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4352,7 +4465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430157504"/>
+        <c:axId val="322807992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430160640"/>
+        <c:crossAx val="322804464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,11 +5109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="421745368"/>
-        <c:axId val="421735568"/>
+        <c:axId val="322805640"/>
+        <c:axId val="322808384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="421745368"/>
+        <c:axId val="322805640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421735568"/>
+        <c:crossAx val="322808384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5050,7 +5163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421735568"/>
+        <c:axId val="322808384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,7 +5214,2566 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421745368"/>
+        <c:crossAx val="322805640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bacilos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$A$1:$A$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+                <c:pt idx="0">
+                  <c:v>24.7203288861533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-212.73416765515199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.603926424629901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-197.248310214649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.418798870318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.550941732901194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-39.487434737241102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.333968371829499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.0922685979004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.224961502795999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-62.995705388589698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-156.18058849326499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.310538704186699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.642518961979903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-29.393215715124601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.426406871192796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.703166604549203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-99.035819757700494</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.89519011705701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.241993443549198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4998294726793908</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-61.0579019990248</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.7613673767893001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.129416361177903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0022529651702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-35.966746186871198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-66.475965146321499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.498170852448599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.1883953065771</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83.559199653929099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-41.416425168816197</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.7936559828751104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110.985676548979</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.4598490858335</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.742105632380699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-30.192822507126099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-22.3604839979381</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3354029729949399</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-22.7152027988048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-133.18642742672901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-79.711609192443007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.932660341143396</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-15.9981168322869</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-81.091076992302703</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7387221059623301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-60.744105294633002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-12.4264068711928</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-60.752081152661198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-54.937684082494101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-27.483791612041198</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-40.832840739697303</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-64.753569673178802</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-82.452305718495097</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-110.34309872139799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.251818065797302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-9.9280182729704496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-70.511127388386498</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-11.0703473992178</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.777586351520499</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-39.664370714564399</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-26.934174528042</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-23.118098377568</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-23.118098377568</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-26.9341745280419</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-39.664370714564299</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.777586351520499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-11.070347399217701</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-70.511127388386498</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-9.9280182729704407</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50.251818065797302</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-110.34309872139799</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-82.452305718495097</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-64.753569673178802</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-40.832840739697303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-27.483791612041099</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-54.937684082494101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-60.752081152661198</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-12.4264068711928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-60.744105294633002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.7387221059623301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-81.091076992302703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-15.9981168322869</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>61.932660341143503</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-79.711609192443007</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-133.18642742672901</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-22.7152027988048</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3354029729949501</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-22.3604839979381</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-30.192822507126099</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>77.742105632380699</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20.4598490858335</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>110.985676548979</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.79365598287509</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-41.416425168816197</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>83.559199653929099</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>36.188395306577</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17.498170852448698</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-66.4759651463214</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-35.966746186871298</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>24.0022529651703</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.129416361177903</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.7613673767893498</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-61.0579019990248</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.4998294726794104</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>48.241993443549099</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>167.89519011705701</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-99.035819757700494</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>58.703166604549203</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>72.426406871192796</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-29.393215715124601</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40.642518961979903</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-12.310538704186699</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-156.18058849326499</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-62.995705388589698</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>60.224961502795999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>25.0922685979004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.333968371829499</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-39.487434737241003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>79.550941732901094</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>142.418798870318</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-197.248310214649</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>28.603926424629901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-212.73416765515199</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>24.7203288861533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="329311120"/>
+        <c:axId val="329304456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="329311120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329304456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="329304456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329311120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avici</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+                <c:pt idx="0">
+                  <c:v>122.480856262068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.21647581374799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-110.664167598764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-46.462547567326602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5131406215058796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.2499432206381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.982355342036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-173.583299067594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-88.912950506819996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.4006250420308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-44.397296884303998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114.439882304562</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.677080678692299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-58.014437775223399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.8187970784698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-88.526911934581193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20.381593105679499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-48.591502443210402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.938129167807499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-47.6332613790089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-48.429590151720198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-53.099632765488302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-53.171242500597103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.2660887338503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-78.159572592612307</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-112.516452701757</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.757772992758497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.85408754380801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.022143740005703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-44.563817454462601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>79.642586711825004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.509611584230599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7.4079402164666899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.210162076931301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58.556836841639502</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.3219049367871101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.341744703576083</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-26.316646937414401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-28.241702116210799</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.925242704512002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-34.962519996341598</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-22.452089964156801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.192023001568799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-10.6683900902883</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.207407000583999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.22882032780391</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-23.4730880654188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-20.6733827380557</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.100098499630999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-45.241456440542201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-12.253477923061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-54.107986288924003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5.3561396485681403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-25.004759168693301</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4.4410875500449896</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.6906593836695401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-12.3667676022152</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-9.6809355041289695</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.306457177817499</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-19.6968726699976</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-28.152344185260699</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3510249141394102</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.3510249141394</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-28.152344185260699</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-19.6968726699976</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.306457177817499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-9.6809355041289393</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-12.3667676022152</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.6906593836695401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-4.44108755004501</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-25.004759168693301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-5.3561396485681101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-54.107986288924003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-12.253477923061</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-45.241456440542201</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.100098499630999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-20.6733827380558</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-23.4730880654188</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-4.2288203278038896</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37.207407000583999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-10.6683900902883</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.192023001568799</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-22.452089964156801</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-34.962519996341697</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.925242704512002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-28.241702116210799</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-26.316646937414401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.34174470357609699</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-7.3219049367871198</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>58.556836841639502</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.210162076931301</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-7.4079402164666996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.5096115842305</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79.642586711825103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-44.563817454462601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.022143740005703</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>116.85408754380801</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>54.757772992758397</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-112.516452701757</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-78.159572592612307</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.2660887338503</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-53.171242500597003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-53.099632765488302</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-48.429590151720099</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-47.6332613790089</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21.938129167807499</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-48.591502443210402</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-20.381593105679499</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-88.526911934581193</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-12.8187970784697</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-58.0144377752233</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36.677080678692299</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>114.439882304562</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-44.397296884303898</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-23.4006250420307</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-88.912950506819996</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-173.583299067594</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-10.982355342036</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11.2499432206381</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-4.5131406215058796</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-46.462547567326503</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-110.664167598764</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>139.21647581374799</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>122.480856262068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="325513088"/>
+        <c:axId val="325511912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325513088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325511912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325511912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325513088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mana</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$1:$C$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+                <c:pt idx="0">
+                  <c:v>236.79943614618799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-144.240877324434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.318108834433502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-122.128366553132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343.50423725979402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-104.566700557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.412797254450098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.493284045176097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14.5652616597316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30.7886101675068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-51.507336096491699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.7326369809473</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-58.536683652111101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.389453709065499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-28.972761209943901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.121320343559599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1778284947745501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-14.2318153251917</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.183096992454601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-52.878846828318501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.891165391136695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-69.2418017099221</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.006770998017103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-60.503746415861997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.844676575802694</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-80.193561037612696</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.9459927386225</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.195271798438597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.585735990542602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-69.502910578395202</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.326579604790801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.791725900720301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-55.382627004734502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.632412709354199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-38.874816888759</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-44.392377788057203</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.7832285361975497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.061441597868502</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-56.491202950254603</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.319433880929793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41600788796668497</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.79105896781330598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-18.9781896369153</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.6851360021357</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-50.150201546185301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.395674134006502</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.878679656440299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5514962753713699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.492312536304397</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0707881913708199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.9772132266722</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.58063872453496</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-7.48882585945573</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-47.730876480661998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37.501665320940397</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-54.739358071681401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0487402332817704</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3589166718719199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.345641497944001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-44.994912550678201</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.224645280018301</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-10.0521864429318</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-10.0521864429318</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>52.224645280018301</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-44.994912550678201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.345641497943902</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3589166718719501</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0487402332817801</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-54.739358071681401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.501665320940397</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-47.730876480661998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-7.4888258594557602</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.58063872453494</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.9772132266722</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0707881913708199</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42.492312536304397</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5514962753713801</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.878679656440299</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.395674134006502</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-50.150201546185301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.6851360021357</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-18.9781896369153</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.79105896781324903</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.41600788796668497</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>67.319433880929793</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-56.491202950254603</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40.061441597868601</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-7.7832285361975604</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-44.392377788057203</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-38.8748168887589</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>66.632412709354298</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-55.382627004734502</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>49.791725900720401</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54.326579604790801</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-69.502910578395301</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>67.585735990542702</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-79.195271798438597</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>32.9459927386225</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-80.193561037612696</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>73.844676575802694</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-60.503746415861997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>65.006770998017103</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-69.2418017099221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>71.891165391136695</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-52.878846828318501</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44.183096992454601</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-14.2318153251917</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.1778284947745004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15.121320343559599</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-28.972761209943901</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22.389453709065499</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-58.536683652111101</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.7326369809473</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-51.507336096491599</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-30.7886101675068</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-14.5652616597316</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43.493284045176097</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>77.412797254450098</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-104.566700557</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>343.50423725979402</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-122.128366553132</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45.318108834433502</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-144.240877324434</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>236.79943614618799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="325097088"/>
+        <c:axId val="325095520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325097088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325095520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325095520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325097088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$1:$D$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+                <c:pt idx="0">
+                  <c:v>656.64086550336299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.075370190047401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-226.31512838534499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.903180557117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249.40216639841901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-93.637257365504496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6102695924237898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.424009498390497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.9404178400515297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.278082965514997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16.5222316198107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.7445420938528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.79064408694299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-41.152860373452803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-35.472262100505397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46446609406726402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.155345994979001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52519176817369295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.454028943784198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.387912450896199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.757924358144699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.559636960079398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.507001038162301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.3797620928889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.406024124965697</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-44.907167295906802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.6308865092618898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.420659932144503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.4167722033053</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.673798609309799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4790600280923503</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.163925497925099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.264047313185198</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.7502002614857997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.275329827251298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-17.6539341292155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.428459584998601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-26.429040211172801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8628785942302901</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.414799862984299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-11.707666793023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.5007874712995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.7556401743168299</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.20531677899683</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.2134265168661</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.7111692348649203</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.5355339059327298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-28.260086846923599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.3300010917904901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17645344433874699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.4895127426402999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.15284263139551801</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.98680499900806795</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.6014889153876704</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-14.666650185509701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.7877144222415402</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.717882946910301</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.5688469854198495</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.513528055695099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-18.2055014507343</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.1366014436949</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.6628147507756204</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.6628147507756204</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.1366014436949</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-18.2055014507343</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.513528055695099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.5688469854198104</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.717882946910301</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.7877144222415602</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-14.666650185509701</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.6014889153876997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.98680499900808605</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.152842631395506</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.4895127426402901</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.176453444338735</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.3300010917904999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-28.260086846923599</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5355339059327298</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.7111692348649399</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.2134265168661</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.20531677899687</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.7556401743168402</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26.500787471299599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-11.707666793023</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.414799862984299</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.8628785942302901</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-26.429040211172801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.428459584998601</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-17.653934129215401</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.275329827251298</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.7502002614858201</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31.264047313185301</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.163925497925199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-4.9999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.4790600280922899</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18.673798609309799</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>32.4167722033053</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>48.420659932144503</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-6.6308865092618401</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-44.907167295906802</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32.406024124965697</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.3797620928889</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>85.507001038162301</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20.559636960079398</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.757924358144699</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.387912450896199</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23.454028943784301</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.52519176817366597</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>50.155345994979001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.46446609406726103</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-35.472262100505297</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-41.152860373452803</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-4.7906440869429803</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40.7445420938528</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-16.5222316198107</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37.278082965514997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-6.9404178400515102</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>32.424009498390397</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.6102695924238004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-93.637257365504496</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>249.40216639841901</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>28.903180557117</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-226.31512838534499</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-18.0753701900476</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>656.64086550336299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="386270976"/>
+        <c:axId val="386271760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="386270976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386271760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="386271760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386270976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5248,6 +7920,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7300,6 +10132,2070 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7960,6 +12856,131 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8242,8 +13263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12770,8 +17791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12852,7 +17873,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:H31" si="1">IF(AND(A3&lt;MAX(A$2:A$30)+5,A3&gt;MAX(A$2:A$30)-5),1,0)</f>
+        <f t="shared" ref="E3:H30" si="1">IF(AND(A3&lt;MAX(A$2:A$30)+5,A3&gt;MAX(A$2:A$30)-5),1,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="2">
@@ -13696,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" ref="F31:H31" si="2">IF(AND(B31&lt;MAX(B$31:B$60)+5,B31&gt;MAX(B$31:B$60)-5),1,0)</f>
+        <f t="shared" ref="F31" si="2">IF(AND(B31&lt;MAX(B$31:B$60)+5,B31&gt;MAX(B$31:B$60)-5),1,0)</f>
         <v>0</v>
       </c>
       <c r="G31" s="3">
@@ -13722,7 +18743,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" ref="E32:E61" si="5">IF(AND(A32&lt;MAX(A$31:A$60)+5,A32&gt;MAX(A$31:A$60)-5),1,0)</f>
+        <f t="shared" ref="E32:E60" si="5">IF(AND(A32&lt;MAX(A$31:A$60)+5,A32&gt;MAX(A$31:A$60)-5),1,0)</f>
         <v>0</v>
       </c>
       <c r="F32" s="3">
@@ -14622,7 +19643,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" ref="E62:E91" si="10">IF(AND(A62&lt;MAX(A$61:A$90)+5,A62&gt;MAX(A$61:A$90)-5),1,0)</f>
+        <f t="shared" ref="E62:E90" si="10">IF(AND(A62&lt;MAX(A$61:A$90)+5,A62&gt;MAX(A$61:A$90)-5),1,0)</f>
         <v>0</v>
       </c>
       <c r="F62" s="4">
@@ -15522,7 +20543,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" ref="E92:E121" si="15">IF(AND(A92&lt;MAX(A$91:A$120)+5,A92&gt;MAX(A$91:A$120)-5),1,0)</f>
+        <f t="shared" ref="E92:E120" si="15">IF(AND(A92&lt;MAX(A$91:A$120)+5,A92&gt;MAX(A$91:A$120)-5),1,0)</f>
         <v>0</v>
       </c>
       <c r="F92" s="1">
@@ -17276,6 +22297,4027 @@
       <c r="H150" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EX149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:EC1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>48</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1&amp;","</f>
+        <v>48,</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>13</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>6</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>34</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>29</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>12</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>6</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>29</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>4</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>25</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>24</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>20</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">A2&amp;","</f>
+        <v>42,</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>50,</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>52</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>52</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>53</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>53,</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>53</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>53,</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>53,</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>53</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>53,</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>52</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>52</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>53</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>53,</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>52</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>51</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>51,</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>52</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>53</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>53,</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>52</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>52</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>52</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>51</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>51,</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>46</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>46,</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>52</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>52</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>52</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>52</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>52,</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>50,</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>50,</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>49</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>49,</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>50,</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>47</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>47,</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>48</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>48,</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>50,</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>41,</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>28,</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>24,</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>24,</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>25,</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>21,</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>23,</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>20,</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>18,</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>16,</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>18,</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>17,</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>21,</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>24,</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>24,</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>19,</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>18,</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>36</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>36,</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>37</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>37,</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>31,</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>35</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>35,</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>34</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>34,</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>25,</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>29,</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>22,</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>19,</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>19,</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>20,</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>21,</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>25,</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>19</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>19,</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>20,</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="1">A66&amp;","</f>
+        <v>18,</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>18</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>18,</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>24</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>24,</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>25</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>25,</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>17,</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>21</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>23</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>23,</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>23</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>23,</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>22</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>22</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>20,</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>20,</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>22</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>20,</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>27</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>27,</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>23</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>23,</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>19</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>19,</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>20</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>20,</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>16,</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>20,</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>21</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>19,</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>18,</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>25</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>25,</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>20</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>20,</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>23</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>23,</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>28</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>28,</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>25</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>25,</v>
+      </c>
+      <c r="D95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>23,</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>21</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>26</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>26,</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>28</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>28,</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>22</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>30</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>30,</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>30</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>30,</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>29</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>29,</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>23</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>23,</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>27</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>27,</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>31</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>31,</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>41</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>41,</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>33</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>33,</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>22</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>21</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>25</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>25,</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>24</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>24,</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>21</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>22</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>26</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>26,</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>24</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>24,</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>28</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>28,</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>25</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>25,</v>
+      </c>
+      <c r="D118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>17,</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>17,</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>21</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>22</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>29</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>29,</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>28</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>28,</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>30</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>30,</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>21</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>24</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>24,</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>41</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>41,</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="str">
+        <f t="shared" ref="B130:B149" si="2">A130&amp;","</f>
+        <v>,</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D142" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="D149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>24.7203288861533</v>
+      </c>
+      <c r="B1">
+        <v>122.480856262068</v>
+      </c>
+      <c r="C1">
+        <v>236.79943614618799</v>
+      </c>
+      <c r="D1">
+        <v>656.64086550336299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-212.73416765515199</v>
+      </c>
+      <c r="B2">
+        <v>139.21647581374799</v>
+      </c>
+      <c r="C2">
+        <v>-144.240877324434</v>
+      </c>
+      <c r="D2">
+        <v>-18.075370190047401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>28.603926424629901</v>
+      </c>
+      <c r="B3">
+        <v>-110.664167598764</v>
+      </c>
+      <c r="C3">
+        <v>45.318108834433502</v>
+      </c>
+      <c r="D3">
+        <v>-226.31512838534499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-197.248310214649</v>
+      </c>
+      <c r="B4">
+        <v>-46.462547567326602</v>
+      </c>
+      <c r="C4">
+        <v>-122.128366553132</v>
+      </c>
+      <c r="D4">
+        <v>28.903180557117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>142.418798870318</v>
+      </c>
+      <c r="B5">
+        <v>-4.5131406215058796</v>
+      </c>
+      <c r="C5">
+        <v>343.50423725979402</v>
+      </c>
+      <c r="D5">
+        <v>249.40216639841901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>79.550941732901194</v>
+      </c>
+      <c r="B6">
+        <v>11.2499432206381</v>
+      </c>
+      <c r="C6">
+        <v>-104.566700557</v>
+      </c>
+      <c r="D6">
+        <v>-93.637257365504496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-39.487434737241102</v>
+      </c>
+      <c r="B7">
+        <v>-10.982355342036</v>
+      </c>
+      <c r="C7">
+        <v>77.412797254450098</v>
+      </c>
+      <c r="D7">
+        <v>6.6102695924237898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14.333968371829499</v>
+      </c>
+      <c r="B8">
+        <v>-173.583299067594</v>
+      </c>
+      <c r="C8">
+        <v>43.493284045176097</v>
+      </c>
+      <c r="D8">
+        <v>32.424009498390497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25.0922685979004</v>
+      </c>
+      <c r="B9">
+        <v>-88.912950506819996</v>
+      </c>
+      <c r="C9">
+        <v>-14.5652616597316</v>
+      </c>
+      <c r="D9">
+        <v>-6.9404178400515297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60.224961502795999</v>
+      </c>
+      <c r="B10">
+        <v>-23.4006250420308</v>
+      </c>
+      <c r="C10">
+        <v>-30.7886101675068</v>
+      </c>
+      <c r="D10">
+        <v>37.278082965514997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-62.995705388589698</v>
+      </c>
+      <c r="B11">
+        <v>-44.397296884303998</v>
+      </c>
+      <c r="C11">
+        <v>-51.507336096491699</v>
+      </c>
+      <c r="D11">
+        <v>-16.5222316198107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-156.18058849326499</v>
+      </c>
+      <c r="B12">
+        <v>114.439882304562</v>
+      </c>
+      <c r="C12">
+        <v>12.7326369809473</v>
+      </c>
+      <c r="D12">
+        <v>40.7445420938528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-12.310538704186699</v>
+      </c>
+      <c r="B13">
+        <v>36.677080678692299</v>
+      </c>
+      <c r="C13">
+        <v>-58.536683652111101</v>
+      </c>
+      <c r="D13">
+        <v>-4.79064408694299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40.642518961979903</v>
+      </c>
+      <c r="B14">
+        <v>-58.014437775223399</v>
+      </c>
+      <c r="C14">
+        <v>22.389453709065499</v>
+      </c>
+      <c r="D14">
+        <v>-41.152860373452803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-29.393215715124601</v>
+      </c>
+      <c r="B15">
+        <v>-12.8187970784698</v>
+      </c>
+      <c r="C15">
+        <v>-28.972761209943901</v>
+      </c>
+      <c r="D15">
+        <v>-35.472262100505397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>72.426406871192796</v>
+      </c>
+      <c r="B16">
+        <v>-88.526911934581193</v>
+      </c>
+      <c r="C16">
+        <v>15.121320343559599</v>
+      </c>
+      <c r="D16">
+        <v>0.46446609406726402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>58.703166604549203</v>
+      </c>
+      <c r="B17">
+        <v>-20.381593105679499</v>
+      </c>
+      <c r="C17">
+        <v>6.1778284947745501</v>
+      </c>
+      <c r="D17">
+        <v>50.155345994979001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-99.035819757700494</v>
+      </c>
+      <c r="B18">
+        <v>-48.591502443210402</v>
+      </c>
+      <c r="C18">
+        <v>-14.2318153251917</v>
+      </c>
+      <c r="D18">
+        <v>0.52519176817369295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>167.89519011705701</v>
+      </c>
+      <c r="B19">
+        <v>21.938129167807499</v>
+      </c>
+      <c r="C19">
+        <v>44.183096992454601</v>
+      </c>
+      <c r="D19">
+        <v>23.454028943784198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48.241993443549198</v>
+      </c>
+      <c r="B20">
+        <v>-47.6332613790089</v>
+      </c>
+      <c r="C20">
+        <v>-52.878846828318501</v>
+      </c>
+      <c r="D20">
+        <v>26.387912450896199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.4998294726793908</v>
+      </c>
+      <c r="B21">
+        <v>-48.429590151720198</v>
+      </c>
+      <c r="C21">
+        <v>71.891165391136695</v>
+      </c>
+      <c r="D21">
+        <v>26.757924358144699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-61.0579019990248</v>
+      </c>
+      <c r="B22">
+        <v>-53.099632765488302</v>
+      </c>
+      <c r="C22">
+        <v>-69.2418017099221</v>
+      </c>
+      <c r="D22">
+        <v>20.559636960079398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7.7613673767893001</v>
+      </c>
+      <c r="B23">
+        <v>-53.171242500597103</v>
+      </c>
+      <c r="C23">
+        <v>65.006770998017103</v>
+      </c>
+      <c r="D23">
+        <v>85.507001038162301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>90.129416361177903</v>
+      </c>
+      <c r="B24">
+        <v>14.2660887338503</v>
+      </c>
+      <c r="C24">
+        <v>-60.503746415861997</v>
+      </c>
+      <c r="D24">
+        <v>16.3797620928889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24.0022529651702</v>
+      </c>
+      <c r="B25">
+        <v>-78.159572592612307</v>
+      </c>
+      <c r="C25">
+        <v>73.844676575802694</v>
+      </c>
+      <c r="D25">
+        <v>32.406024124965697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-35.966746186871198</v>
+      </c>
+      <c r="B26">
+        <v>-112.516452701757</v>
+      </c>
+      <c r="C26">
+        <v>-80.193561037612696</v>
+      </c>
+      <c r="D26">
+        <v>-44.907167295906802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-66.475965146321499</v>
+      </c>
+      <c r="B27">
+        <v>54.757772992758497</v>
+      </c>
+      <c r="C27">
+        <v>32.9459927386225</v>
+      </c>
+      <c r="D27">
+        <v>-6.6308865092618898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>17.498170852448599</v>
+      </c>
+      <c r="B28">
+        <v>116.85408754380801</v>
+      </c>
+      <c r="C28">
+        <v>-79.195271798438597</v>
+      </c>
+      <c r="D28">
+        <v>48.420659932144503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>36.1883953065771</v>
+      </c>
+      <c r="B29">
+        <v>35.022143740005703</v>
+      </c>
+      <c r="C29">
+        <v>67.585735990542602</v>
+      </c>
+      <c r="D29">
+        <v>32.4167722033053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>83.559199653929099</v>
+      </c>
+      <c r="B30">
+        <v>-44.563817454462601</v>
+      </c>
+      <c r="C30">
+        <v>-69.502910578395202</v>
+      </c>
+      <c r="D30">
+        <v>18.673798609309799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-41.416425168816197</v>
+      </c>
+      <c r="B31">
+        <v>79.642586711825004</v>
+      </c>
+      <c r="C31">
+        <v>54.326579604790801</v>
+      </c>
+      <c r="D31">
+        <v>7.4790600280923503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-119</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6.7936559828751104</v>
+      </c>
+      <c r="B33">
+        <v>14.509611584230599</v>
+      </c>
+      <c r="C33">
+        <v>49.791725900720301</v>
+      </c>
+      <c r="D33">
+        <v>22.163925497925099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>110.985676548979</v>
+      </c>
+      <c r="B34">
+        <v>-7.4079402164666899</v>
+      </c>
+      <c r="C34">
+        <v>-55.382627004734502</v>
+      </c>
+      <c r="D34">
+        <v>31.264047313185198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20.4598490858335</v>
+      </c>
+      <c r="B35">
+        <v>12.210162076931301</v>
+      </c>
+      <c r="C35">
+        <v>66.632412709354199</v>
+      </c>
+      <c r="D35">
+        <v>6.7502002614857997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>77.742105632380699</v>
+      </c>
+      <c r="B36">
+        <v>58.556836841639502</v>
+      </c>
+      <c r="C36">
+        <v>-38.874816888759</v>
+      </c>
+      <c r="D36">
+        <v>33.275329827251298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-30.192822507126099</v>
+      </c>
+      <c r="B37">
+        <v>-7.3219049367871101</v>
+      </c>
+      <c r="C37">
+        <v>-44.392377788057203</v>
+      </c>
+      <c r="D37">
+        <v>-17.6539341292155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-22.3604839979381</v>
+      </c>
+      <c r="B38">
+        <v>-0.341744703576083</v>
+      </c>
+      <c r="C38">
+        <v>-7.7832285361975497</v>
+      </c>
+      <c r="D38">
+        <v>11.428459584998601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.3354029729949399</v>
+      </c>
+      <c r="B39">
+        <v>-26.316646937414401</v>
+      </c>
+      <c r="C39">
+        <v>40.061441597868502</v>
+      </c>
+      <c r="D39">
+        <v>-26.429040211172801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-22.7152027988048</v>
+      </c>
+      <c r="B40">
+        <v>-28.241702116210799</v>
+      </c>
+      <c r="C40">
+        <v>-56.491202950254603</v>
+      </c>
+      <c r="D40">
+        <v>9.8628785942302901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-133.18642742672901</v>
+      </c>
+      <c r="B41">
+        <v>18.925242704512002</v>
+      </c>
+      <c r="C41">
+        <v>67.319433880929793</v>
+      </c>
+      <c r="D41">
+        <v>17.414799862984299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-79.711609192443007</v>
+      </c>
+      <c r="B42">
+        <v>-34.962519996341598</v>
+      </c>
+      <c r="C42">
+        <v>0.41600788796668497</v>
+      </c>
+      <c r="D42">
+        <v>-11.707666793023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>61.932660341143396</v>
+      </c>
+      <c r="B43">
+        <v>-22.452089964156801</v>
+      </c>
+      <c r="C43">
+        <v>-0.79105896781330598</v>
+      </c>
+      <c r="D43">
+        <v>26.5007874712995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-15.9981168322869</v>
+      </c>
+      <c r="B44">
+        <v>16.192023001568799</v>
+      </c>
+      <c r="C44">
+        <v>-18.9781896369153</v>
+      </c>
+      <c r="D44">
+        <v>-2.7556401743168299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-81.091076992302703</v>
+      </c>
+      <c r="B45">
+        <v>-10.6683900902883</v>
+      </c>
+      <c r="C45">
+        <v>16.6851360021357</v>
+      </c>
+      <c r="D45">
+        <v>1.20531677899683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.7387221059623301</v>
+      </c>
+      <c r="B46">
+        <v>37.207407000583999</v>
+      </c>
+      <c r="C46">
+        <v>-50.150201546185301</v>
+      </c>
+      <c r="D46">
+        <v>19.2134265168661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-60.744105294633002</v>
+      </c>
+      <c r="B47">
+        <v>-4.22882032780391</v>
+      </c>
+      <c r="C47">
+        <v>17.395674134006502</v>
+      </c>
+      <c r="D47">
+        <v>8.7111692348649203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-12.4264068711928</v>
+      </c>
+      <c r="B48">
+        <v>-23.4730880654188</v>
+      </c>
+      <c r="C48">
+        <v>10.878679656440299</v>
+      </c>
+      <c r="D48">
+        <v>7.5355339059327298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-60.752081152661198</v>
+      </c>
+      <c r="B49">
+        <v>-20.6733827380557</v>
+      </c>
+      <c r="C49">
+        <v>2.5514962753713699</v>
+      </c>
+      <c r="D49">
+        <v>-28.260086846923599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-54.937684082494101</v>
+      </c>
+      <c r="B50">
+        <v>17.100098499630999</v>
+      </c>
+      <c r="C50">
+        <v>42.492312536304397</v>
+      </c>
+      <c r="D50">
+        <v>-5.3300010917904901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-27.483791612041198</v>
+      </c>
+      <c r="B51">
+        <v>-45.241456440542201</v>
+      </c>
+      <c r="C51">
+        <v>3.0707881913708199</v>
+      </c>
+      <c r="D51">
+        <v>0.17645344433874699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-40.832840739697303</v>
+      </c>
+      <c r="B52">
+        <v>-12.253477923061</v>
+      </c>
+      <c r="C52">
+        <v>15.9772132266722</v>
+      </c>
+      <c r="D52">
+        <v>-3.4895127426402999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-64.753569673178802</v>
+      </c>
+      <c r="B53">
+        <v>-54.107986288924003</v>
+      </c>
+      <c r="C53">
+        <v>-3.58063872453496</v>
+      </c>
+      <c r="D53">
+        <v>-0.15284263139551801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-82.452305718495097</v>
+      </c>
+      <c r="B54">
+        <v>-5.3561396485681403</v>
+      </c>
+      <c r="C54">
+        <v>-7.48882585945573</v>
+      </c>
+      <c r="D54">
+        <v>-0.98680499900806795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-110.34309872139799</v>
+      </c>
+      <c r="B55">
+        <v>-25.004759168693301</v>
+      </c>
+      <c r="C55">
+        <v>-47.730876480661998</v>
+      </c>
+      <c r="D55">
+        <v>7.6014889153876704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50.251818065797302</v>
+      </c>
+      <c r="B56">
+        <v>-4.4410875500449896</v>
+      </c>
+      <c r="C56">
+        <v>37.501665320940397</v>
+      </c>
+      <c r="D56">
+        <v>-14.666650185509701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-9.9280182729704496</v>
+      </c>
+      <c r="B57">
+        <v>-1.6906593836695401</v>
+      </c>
+      <c r="C57">
+        <v>-54.739358071681401</v>
+      </c>
+      <c r="D57">
+        <v>3.7877144222415402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-70.511127388386498</v>
+      </c>
+      <c r="B58">
+        <v>-12.3667676022152</v>
+      </c>
+      <c r="C58">
+        <v>4.0487402332817704</v>
+      </c>
+      <c r="D58">
+        <v>12.717882946910301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-11.0703473992178</v>
+      </c>
+      <c r="B59">
+        <v>-9.6809355041289695</v>
+      </c>
+      <c r="C59">
+        <v>1.3589166718719199</v>
+      </c>
+      <c r="D59">
+        <v>9.5688469854198495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10.777586351520499</v>
+      </c>
+      <c r="B60">
+        <v>32.306457177817499</v>
+      </c>
+      <c r="C60">
+        <v>27.345641497944001</v>
+      </c>
+      <c r="D60">
+        <v>12.513528055695099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-39.664370714564399</v>
+      </c>
+      <c r="B61">
+        <v>-19.6968726699976</v>
+      </c>
+      <c r="C61">
+        <v>-44.994912550678201</v>
+      </c>
+      <c r="D61">
+        <v>-18.2055014507343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-26.934174528042</v>
+      </c>
+      <c r="B62">
+        <v>-28.152344185260699</v>
+      </c>
+      <c r="C62">
+        <v>52.224645280018301</v>
+      </c>
+      <c r="D62">
+        <v>16.1366014436949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-23.118098377568</v>
+      </c>
+      <c r="B63">
+        <v>3.3510249141394102</v>
+      </c>
+      <c r="C63">
+        <v>-10.0521864429318</v>
+      </c>
+      <c r="D63">
+        <v>8.6628147507756204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-23</v>
+      </c>
+      <c r="B64">
+        <v>-6</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-23.118098377568</v>
+      </c>
+      <c r="B65">
+        <v>3.3510249141394</v>
+      </c>
+      <c r="C65">
+        <v>-10.0521864429318</v>
+      </c>
+      <c r="D65">
+        <v>8.6628147507756204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-26.9341745280419</v>
+      </c>
+      <c r="B66">
+        <v>-28.152344185260699</v>
+      </c>
+      <c r="C66">
+        <v>52.224645280018301</v>
+      </c>
+      <c r="D66">
+        <v>16.1366014436949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-39.664370714564299</v>
+      </c>
+      <c r="B67">
+        <v>-19.6968726699976</v>
+      </c>
+      <c r="C67">
+        <v>-44.994912550678201</v>
+      </c>
+      <c r="D67">
+        <v>-18.2055014507343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10.777586351520499</v>
+      </c>
+      <c r="B68">
+        <v>32.306457177817499</v>
+      </c>
+      <c r="C68">
+        <v>27.345641497943902</v>
+      </c>
+      <c r="D68">
+        <v>12.513528055695099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-11.070347399217701</v>
+      </c>
+      <c r="B69">
+        <v>-9.6809355041289393</v>
+      </c>
+      <c r="C69">
+        <v>1.3589166718719501</v>
+      </c>
+      <c r="D69">
+        <v>9.5688469854198104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-70.511127388386498</v>
+      </c>
+      <c r="B70">
+        <v>-12.3667676022152</v>
+      </c>
+      <c r="C70">
+        <v>4.0487402332817801</v>
+      </c>
+      <c r="D70">
+        <v>12.717882946910301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-9.9280182729704407</v>
+      </c>
+      <c r="B71">
+        <v>-1.6906593836695401</v>
+      </c>
+      <c r="C71">
+        <v>-54.739358071681401</v>
+      </c>
+      <c r="D71">
+        <v>3.7877144222415602</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>50.251818065797302</v>
+      </c>
+      <c r="B72">
+        <v>-4.44108755004501</v>
+      </c>
+      <c r="C72">
+        <v>37.501665320940397</v>
+      </c>
+      <c r="D72">
+        <v>-14.666650185509701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-110.34309872139799</v>
+      </c>
+      <c r="B73">
+        <v>-25.004759168693301</v>
+      </c>
+      <c r="C73">
+        <v>-47.730876480661998</v>
+      </c>
+      <c r="D73">
+        <v>7.6014889153876997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-82.452305718495097</v>
+      </c>
+      <c r="B74">
+        <v>-5.3561396485681101</v>
+      </c>
+      <c r="C74">
+        <v>-7.4888258594557602</v>
+      </c>
+      <c r="D74">
+        <v>-0.98680499900808605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-64.753569673178802</v>
+      </c>
+      <c r="B75">
+        <v>-54.107986288924003</v>
+      </c>
+      <c r="C75">
+        <v>-3.58063872453494</v>
+      </c>
+      <c r="D75">
+        <v>-0.152842631395506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-40.832840739697303</v>
+      </c>
+      <c r="B76">
+        <v>-12.253477923061</v>
+      </c>
+      <c r="C76">
+        <v>15.9772132266722</v>
+      </c>
+      <c r="D76">
+        <v>-3.4895127426402901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-27.483791612041099</v>
+      </c>
+      <c r="B77">
+        <v>-45.241456440542201</v>
+      </c>
+      <c r="C77">
+        <v>3.0707881913708199</v>
+      </c>
+      <c r="D77">
+        <v>0.176453444338735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-54.937684082494101</v>
+      </c>
+      <c r="B78">
+        <v>17.100098499630999</v>
+      </c>
+      <c r="C78">
+        <v>42.492312536304397</v>
+      </c>
+      <c r="D78">
+        <v>-5.3300010917904999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-60.752081152661198</v>
+      </c>
+      <c r="B79">
+        <v>-20.6733827380558</v>
+      </c>
+      <c r="C79">
+        <v>2.5514962753713801</v>
+      </c>
+      <c r="D79">
+        <v>-28.260086846923599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-12.4264068711928</v>
+      </c>
+      <c r="B80">
+        <v>-23.4730880654188</v>
+      </c>
+      <c r="C80">
+        <v>10.878679656440299</v>
+      </c>
+      <c r="D80">
+        <v>7.5355339059327298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-60.744105294633002</v>
+      </c>
+      <c r="B81">
+        <v>-4.2288203278038896</v>
+      </c>
+      <c r="C81">
+        <v>17.395674134006502</v>
+      </c>
+      <c r="D81">
+        <v>8.7111692348649399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.7387221059623301</v>
+      </c>
+      <c r="B82">
+        <v>37.207407000583999</v>
+      </c>
+      <c r="C82">
+        <v>-50.150201546185301</v>
+      </c>
+      <c r="D82">
+        <v>19.2134265168661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-81.091076992302703</v>
+      </c>
+      <c r="B83">
+        <v>-10.6683900902883</v>
+      </c>
+      <c r="C83">
+        <v>16.6851360021357</v>
+      </c>
+      <c r="D83">
+        <v>1.20531677899687</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-15.9981168322869</v>
+      </c>
+      <c r="B84">
+        <v>16.192023001568799</v>
+      </c>
+      <c r="C84">
+        <v>-18.9781896369153</v>
+      </c>
+      <c r="D84">
+        <v>-2.7556401743168402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>61.932660341143503</v>
+      </c>
+      <c r="B85">
+        <v>-22.452089964156801</v>
+      </c>
+      <c r="C85">
+        <v>-0.79105896781324903</v>
+      </c>
+      <c r="D85">
+        <v>26.500787471299599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-79.711609192443007</v>
+      </c>
+      <c r="B86">
+        <v>-34.962519996341697</v>
+      </c>
+      <c r="C86">
+        <v>0.41600788796668497</v>
+      </c>
+      <c r="D86">
+        <v>-11.707666793023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-133.18642742672901</v>
+      </c>
+      <c r="B87">
+        <v>18.925242704512002</v>
+      </c>
+      <c r="C87">
+        <v>67.319433880929793</v>
+      </c>
+      <c r="D87">
+        <v>17.414799862984299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-22.7152027988048</v>
+      </c>
+      <c r="B88">
+        <v>-28.241702116210799</v>
+      </c>
+      <c r="C88">
+        <v>-56.491202950254603</v>
+      </c>
+      <c r="D88">
+        <v>9.8628785942302901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2.3354029729949501</v>
+      </c>
+      <c r="B89">
+        <v>-26.316646937414401</v>
+      </c>
+      <c r="C89">
+        <v>40.061441597868601</v>
+      </c>
+      <c r="D89">
+        <v>-26.429040211172801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-22.3604839979381</v>
+      </c>
+      <c r="B90">
+        <v>-0.34174470357609699</v>
+      </c>
+      <c r="C90">
+        <v>-7.7832285361975604</v>
+      </c>
+      <c r="D90">
+        <v>11.428459584998601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-30.192822507126099</v>
+      </c>
+      <c r="B91">
+        <v>-7.3219049367871198</v>
+      </c>
+      <c r="C91">
+        <v>-44.392377788057203</v>
+      </c>
+      <c r="D91">
+        <v>-17.653934129215401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>77.742105632380699</v>
+      </c>
+      <c r="B92">
+        <v>58.556836841639502</v>
+      </c>
+      <c r="C92">
+        <v>-38.8748168887589</v>
+      </c>
+      <c r="D92">
+        <v>33.275329827251298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>20.4598490858335</v>
+      </c>
+      <c r="B93">
+        <v>12.210162076931301</v>
+      </c>
+      <c r="C93">
+        <v>66.632412709354298</v>
+      </c>
+      <c r="D93">
+        <v>6.7502002614858201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>110.985676548979</v>
+      </c>
+      <c r="B94">
+        <v>-7.4079402164666996</v>
+      </c>
+      <c r="C94">
+        <v>-55.382627004734502</v>
+      </c>
+      <c r="D94">
+        <v>31.264047313185301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>6.79365598287509</v>
+      </c>
+      <c r="B95">
+        <v>14.5096115842305</v>
+      </c>
+      <c r="C95">
+        <v>49.791725900720401</v>
+      </c>
+      <c r="D95">
+        <v>22.163925497925199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-119</v>
+      </c>
+      <c r="B96">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <v>33</v>
+      </c>
+      <c r="D96">
+        <v>-4.9999999999999902</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-41.416425168816197</v>
+      </c>
+      <c r="B97">
+        <v>79.642586711825103</v>
+      </c>
+      <c r="C97">
+        <v>54.326579604790801</v>
+      </c>
+      <c r="D97">
+        <v>7.4790600280922899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>83.559199653929099</v>
+      </c>
+      <c r="B98">
+        <v>-44.563817454462601</v>
+      </c>
+      <c r="C98">
+        <v>-69.502910578395301</v>
+      </c>
+      <c r="D98">
+        <v>18.673798609309799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>36.188395306577</v>
+      </c>
+      <c r="B99">
+        <v>35.022143740005703</v>
+      </c>
+      <c r="C99">
+        <v>67.585735990542702</v>
+      </c>
+      <c r="D99">
+        <v>32.4167722033053</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>17.498170852448698</v>
+      </c>
+      <c r="B100">
+        <v>116.85408754380801</v>
+      </c>
+      <c r="C100">
+        <v>-79.195271798438597</v>
+      </c>
+      <c r="D100">
+        <v>48.420659932144503</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-66.4759651463214</v>
+      </c>
+      <c r="B101">
+        <v>54.757772992758397</v>
+      </c>
+      <c r="C101">
+        <v>32.9459927386225</v>
+      </c>
+      <c r="D101">
+        <v>-6.6308865092618401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-35.966746186871298</v>
+      </c>
+      <c r="B102">
+        <v>-112.516452701757</v>
+      </c>
+      <c r="C102">
+        <v>-80.193561037612696</v>
+      </c>
+      <c r="D102">
+        <v>-44.907167295906802</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>24.0022529651703</v>
+      </c>
+      <c r="B103">
+        <v>-78.159572592612307</v>
+      </c>
+      <c r="C103">
+        <v>73.844676575802694</v>
+      </c>
+      <c r="D103">
+        <v>32.406024124965697</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>90.129416361177903</v>
+      </c>
+      <c r="B104">
+        <v>14.2660887338503</v>
+      </c>
+      <c r="C104">
+        <v>-60.503746415861997</v>
+      </c>
+      <c r="D104">
+        <v>16.3797620928889</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>7.7613673767893498</v>
+      </c>
+      <c r="B105">
+        <v>-53.171242500597003</v>
+      </c>
+      <c r="C105">
+        <v>65.006770998017103</v>
+      </c>
+      <c r="D105">
+        <v>85.507001038162301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-61.0579019990248</v>
+      </c>
+      <c r="B106">
+        <v>-53.099632765488302</v>
+      </c>
+      <c r="C106">
+        <v>-69.2418017099221</v>
+      </c>
+      <c r="D106">
+        <v>20.559636960079398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9.4998294726794104</v>
+      </c>
+      <c r="B107">
+        <v>-48.429590151720099</v>
+      </c>
+      <c r="C107">
+        <v>71.891165391136695</v>
+      </c>
+      <c r="D107">
+        <v>26.757924358144699</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>48.241993443549099</v>
+      </c>
+      <c r="B108">
+        <v>-47.6332613790089</v>
+      </c>
+      <c r="C108">
+        <v>-52.878846828318501</v>
+      </c>
+      <c r="D108">
+        <v>26.387912450896199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>167.89519011705701</v>
+      </c>
+      <c r="B109">
+        <v>21.938129167807499</v>
+      </c>
+      <c r="C109">
+        <v>44.183096992454601</v>
+      </c>
+      <c r="D109">
+        <v>23.454028943784301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-99.035819757700494</v>
+      </c>
+      <c r="B110">
+        <v>-48.591502443210402</v>
+      </c>
+      <c r="C110">
+        <v>-14.2318153251917</v>
+      </c>
+      <c r="D110">
+        <v>0.52519176817366597</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>58.703166604549203</v>
+      </c>
+      <c r="B111">
+        <v>-20.381593105679499</v>
+      </c>
+      <c r="C111">
+        <v>6.1778284947745004</v>
+      </c>
+      <c r="D111">
+        <v>50.155345994979001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>72.426406871192796</v>
+      </c>
+      <c r="B112">
+        <v>-88.526911934581193</v>
+      </c>
+      <c r="C112">
+        <v>15.121320343559599</v>
+      </c>
+      <c r="D112">
+        <v>0.46446609406726103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-29.393215715124601</v>
+      </c>
+      <c r="B113">
+        <v>-12.8187970784697</v>
+      </c>
+      <c r="C113">
+        <v>-28.972761209943901</v>
+      </c>
+      <c r="D113">
+        <v>-35.472262100505297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>40.642518961979903</v>
+      </c>
+      <c r="B114">
+        <v>-58.0144377752233</v>
+      </c>
+      <c r="C114">
+        <v>22.389453709065499</v>
+      </c>
+      <c r="D114">
+        <v>-41.152860373452803</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-12.310538704186699</v>
+      </c>
+      <c r="B115">
+        <v>36.677080678692299</v>
+      </c>
+      <c r="C115">
+        <v>-58.536683652111101</v>
+      </c>
+      <c r="D115">
+        <v>-4.7906440869429803</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-156.18058849326499</v>
+      </c>
+      <c r="B116">
+        <v>114.439882304562</v>
+      </c>
+      <c r="C116">
+        <v>12.7326369809473</v>
+      </c>
+      <c r="D116">
+        <v>40.7445420938528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-62.995705388589698</v>
+      </c>
+      <c r="B117">
+        <v>-44.397296884303898</v>
+      </c>
+      <c r="C117">
+        <v>-51.507336096491599</v>
+      </c>
+      <c r="D117">
+        <v>-16.5222316198107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>60.224961502795999</v>
+      </c>
+      <c r="B118">
+        <v>-23.4006250420307</v>
+      </c>
+      <c r="C118">
+        <v>-30.7886101675068</v>
+      </c>
+      <c r="D118">
+        <v>37.278082965514997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>25.0922685979004</v>
+      </c>
+      <c r="B119">
+        <v>-88.912950506819996</v>
+      </c>
+      <c r="C119">
+        <v>-14.5652616597316</v>
+      </c>
+      <c r="D119">
+        <v>-6.9404178400515102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>14.333968371829499</v>
+      </c>
+      <c r="B120">
+        <v>-173.583299067594</v>
+      </c>
+      <c r="C120">
+        <v>43.493284045176097</v>
+      </c>
+      <c r="D120">
+        <v>32.424009498390397</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-39.487434737241003</v>
+      </c>
+      <c r="B121">
+        <v>-10.982355342036</v>
+      </c>
+      <c r="C121">
+        <v>77.412797254450098</v>
+      </c>
+      <c r="D121">
+        <v>6.6102695924238004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>79.550941732901094</v>
+      </c>
+      <c r="B122">
+        <v>11.2499432206381</v>
+      </c>
+      <c r="C122">
+        <v>-104.566700557</v>
+      </c>
+      <c r="D122">
+        <v>-93.637257365504496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>142.418798870318</v>
+      </c>
+      <c r="B123">
+        <v>-4.5131406215058796</v>
+      </c>
+      <c r="C123">
+        <v>343.50423725979402</v>
+      </c>
+      <c r="D123">
+        <v>249.40216639841901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-197.248310214649</v>
+      </c>
+      <c r="B124">
+        <v>-46.462547567326503</v>
+      </c>
+      <c r="C124">
+        <v>-122.128366553132</v>
+      </c>
+      <c r="D124">
+        <v>28.903180557117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>28.603926424629901</v>
+      </c>
+      <c r="B125">
+        <v>-110.664167598764</v>
+      </c>
+      <c r="C125">
+        <v>45.318108834433502</v>
+      </c>
+      <c r="D125">
+        <v>-226.31512838534499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-212.73416765515199</v>
+      </c>
+      <c r="B126">
+        <v>139.21647581374799</v>
+      </c>
+      <c r="C126">
+        <v>-144.240877324434</v>
+      </c>
+      <c r="D126">
+        <v>-18.0753701900476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>24.7203288861533</v>
+      </c>
+      <c r="B127">
+        <v>122.480856262068</v>
+      </c>
+      <c r="C127">
+        <v>236.79943614618799</v>
+      </c>
+      <c r="D127">
+        <v>656.64086550336299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>SUM(A1:A127)</f>
+        <v>-1700.9999999999973</v>
+      </c>
+      <c r="B128">
+        <f>SUM(B1:B127)</f>
+        <v>-1190.0000000000002</v>
+      </c>
+      <c r="C128">
+        <f>SUM(C1:C127)</f>
+        <v>558.00000000000034</v>
+      </c>
+      <c r="D128">
+        <f>SUM(D1:D127)</f>
+        <v>2199.9999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>AVERAGE(A1:A128)</f>
+        <v>-26.578124999999957</v>
+      </c>
+      <c r="B129">
+        <f>AVERAGE(B1:B128)</f>
+        <v>-18.593750000000004</v>
+      </c>
+      <c r="C129">
+        <f>AVERAGE(C1:C128)</f>
+        <v>8.7187500000000053</v>
+      </c>
+      <c r="D129">
+        <f>AVERAGE(D1:D128)</f>
+        <v>34.374999999999993</v>
       </c>
     </row>
   </sheetData>
